--- a/Progress Reports/CDC Monthly progress reports/2016/CDC RIF plans - July 2016 to July 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2016/CDC RIF plans - July 2016 to July 2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>KG</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Leaves for Cabinet Office</t>
   </si>
   <si>
-    <t>SQL Server middleware build</t>
-  </si>
-  <si>
     <t>Study submission running on SQL server</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>US SEER (Cancer) example data</t>
   </si>
   <si>
-    <t>Assist with middleware (database fixes)</t>
-  </si>
-  <si>
     <t>Background tile download</t>
   </si>
   <si>
@@ -254,6 +248,39 @@
   </si>
   <si>
     <t>http://www.geopedia.si/lite.jsp?params=T118_x408210_y126301_s14#T118_F11063:8283_x405158_y123863_s15_b4</t>
+  </si>
+  <si>
+    <t>Middleware build</t>
+  </si>
+  <si>
+    <t>Assist with middleware (database fixes); SQL Server full install testing</t>
+  </si>
+  <si>
+    <t>CDC Install</t>
+  </si>
+  <si>
+    <t>wpea-traffic/wpea-darwin resdy for install testing</t>
+  </si>
+  <si>
+    <t>CDC sandbox ready</t>
+  </si>
+  <si>
+    <t>Risk analysis sstaitical requirements</t>
+  </si>
+  <si>
+    <t>Risk analysis area selection</t>
+  </si>
+  <si>
+    <t>Risk aanlysis R scripts</t>
+  </si>
+  <si>
+    <t>Risk analysis integration</t>
+  </si>
+  <si>
+    <t>Risk analysis</t>
+  </si>
+  <si>
+    <t>Public network demonstrator system</t>
   </si>
 </sst>
 </file>
@@ -338,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,46 +449,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -807,8 +838,8 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,7 +897,7 @@
       <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="33" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="10"/>
@@ -884,7 +915,7 @@
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -903,10 +934,10 @@
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
@@ -924,8 +955,8 @@
       <c r="E6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
@@ -951,7 +982,7 @@
       <c r="F7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
@@ -963,12 +994,12 @@
         <v>42590</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="35"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="34"/>
-      <c r="G8" s="31"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
@@ -988,10 +1019,10 @@
       <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
@@ -1009,8 +1040,8 @@
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
@@ -1047,14 +1078,14 @@
         <f t="shared" si="0"/>
         <v>42618</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="32" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="43" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1077,7 +1108,7 @@
       <c r="E13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="32" t="s">
         <v>42</v>
       </c>
@@ -1092,11 +1123,11 @@
         <v>42632</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="41" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="32"/>
-      <c r="F14" s="35"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="32"/>
       <c r="H14" s="2" t="s">
         <v>9</v>
@@ -1116,7 +1147,7 @@
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="35"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1135,7 +1166,7 @@
       <c r="E16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1150,11 +1181,11 @@
       <c r="C17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="35"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1167,9 +1198,9 @@
         <v>42660</v>
       </c>
       <c r="C18" s="32"/>
-      <c r="D18" s="35"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="35"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1182,9 +1213,9 @@
         <v>42667</v>
       </c>
       <c r="C19" s="32"/>
-      <c r="D19" s="35"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="35"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1196,7 +1227,7 @@
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="16" t="s">
         <v>49</v>
       </c>
@@ -1215,7 +1246,7 @@
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="18" t="s">
         <v>47</v>
       </c>
@@ -1234,7 +1265,7 @@
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="16" t="s">
         <v>15</v>
       </c>
@@ -1253,11 +1284,11 @@
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="35"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="34"/>
       <c r="G23" s="32" t="s">
         <v>51</v>
@@ -1285,7 +1316,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="34"/>
-      <c r="G24" s="31"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
@@ -1297,12 +1328,12 @@
         <v>42709</v>
       </c>
       <c r="C25" s="32"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="33" t="s">
         <v>55</v>
       </c>
       <c r="F25" s="34"/>
-      <c r="G25" s="31"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
@@ -1314,10 +1345,10 @@
         <v>42716</v>
       </c>
       <c r="C26" s="32"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="31"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
@@ -1331,10 +1362,10 @@
       <c r="C27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="31"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
@@ -1345,15 +1376,15 @@
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
@@ -1369,10 +1400,10 @@
       <c r="D29" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="40"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="32" t="s">
         <v>58</v>
       </c>
@@ -1386,9 +1417,9 @@
         <v>42744</v>
       </c>
       <c r="C30" s="32"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1400,9 +1431,9 @@
         <v>42751</v>
       </c>
       <c r="C31" s="32"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1414,12 +1445,12 @@
         <v>42758</v>
       </c>
       <c r="C32" s="32"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="32"/>
     </row>
-    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>5</v>
       </c>
@@ -1431,8 +1462,8 @@
       <c r="D33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="32"/>
       <c r="H33" s="2" t="s">
         <v>61</v>
@@ -1446,13 +1477,13 @@
         <f t="shared" si="2"/>
         <v>42772</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
       <c r="H34" s="26" t="s">
         <v>63</v>
       </c>
@@ -1466,19 +1497,19 @@
         <f t="shared" si="2"/>
         <v>42779</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="39" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="36" t="s">
         <v>59</v>
       </c>
       <c r="H35" s="23" t="s">
@@ -1497,8 +1528,8 @@
       <c r="C36" s="34"/>
       <c r="D36" s="32"/>
       <c r="E36" s="34"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
@@ -1513,10 +1544,10 @@
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="34"/>
-      <c r="F37" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="33"/>
+      <c r="F37" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="36"/>
       <c r="H37" t="s">
         <v>60</v>
       </c>
@@ -1529,13 +1560,16 @@
         <f t="shared" si="2"/>
         <v>42800</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="44" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
@@ -1547,15 +1581,15 @@
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="36"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
@@ -1566,12 +1600,12 @@
         <v>42814</v>
       </c>
       <c r="C40" s="34"/>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="38" t="s">
         <v>67</v>
       </c>
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="33"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
@@ -1585,7 +1619,7 @@
       <c r="D41" s="32"/>
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
-      <c r="G41" s="33"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="14">
@@ -1596,14 +1630,14 @@
         <v>42828</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="2" t="s">
-        <v>69</v>
+      <c r="G42" s="36"/>
+      <c r="H42" s="44" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1619,6 +1653,9 @@
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="24"/>
+      <c r="H43" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="14">
@@ -1648,7 +1685,9 @@
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
       <c r="G45" s="24"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="26" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="14">
@@ -1658,13 +1697,17 @@
         <f t="shared" si="2"/>
         <v>42856</v>
       </c>
-      <c r="C46" s="32"/>
+      <c r="C46" s="31" t="s">
+        <v>80</v>
+      </c>
       <c r="D46" s="32"/>
-      <c r="E46" s="34"/>
+      <c r="E46" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="F46" s="34"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="26" t="s">
-        <v>64</v>
+      <c r="H46" s="31" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1676,11 +1719,13 @@
         <v>42863</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="33"/>
       <c r="G47" s="28"/>
       <c r="H47" s="26"/>
     </row>
@@ -1693,9 +1738,9 @@
         <v>42870</v>
       </c>
       <c r="C48" s="32"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="28"/>
       <c r="H48" s="26"/>
     </row>
@@ -1708,11 +1753,13 @@
         <v>42877</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="8"/>
       <c r="G49" s="28"/>
       <c r="H49" s="26"/>
     </row>
@@ -1725,9 +1772,9 @@
         <v>42884</v>
       </c>
       <c r="C50" s="32"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="28"/>
       <c r="H50" s="26"/>
     </row>
@@ -1740,9 +1787,9 @@
         <v>42891</v>
       </c>
       <c r="C51" s="32"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="28"/>
       <c r="H51" s="26"/>
     </row>
@@ -1755,14 +1802,14 @@
         <v>42898</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="D52" s="29"/>
       <c r="E52" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="26"/>
@@ -1775,14 +1822,14 @@
         <f t="shared" si="2"/>
         <v>42905</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="29"/>
+      <c r="C53" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="8"/>
       <c r="G53" s="28"/>
       <c r="H53" s="26"/>
     </row>
@@ -1795,9 +1842,9 @@
         <v>42912</v>
       </c>
       <c r="C54" s="34"/>
-      <c r="D54" s="30"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="34"/>
-      <c r="F54" s="29"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="28"/>
       <c r="H54" s="26"/>
     </row>
@@ -1809,17 +1856,17 @@
         <f t="shared" si="2"/>
         <v>42919</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="31" t="s">
-        <v>78</v>
+      <c r="D55" s="29"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -1830,11 +1877,11 @@
         <f t="shared" si="2"/>
         <v>42926</v>
       </c>
-      <c r="C56" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="29"/>
+      <c r="C56" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="34"/>
       <c r="G56" s="28"/>
       <c r="H56" s="26"/>
@@ -1848,9 +1895,11 @@
         <v>42933</v>
       </c>
       <c r="C57" s="32"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="33"/>
       <c r="G57" s="28"/>
       <c r="H57" s="26"/>
     </row>
@@ -1863,9 +1912,9 @@
         <v>42940</v>
       </c>
       <c r="C58" s="32"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
       <c r="G58" s="28"/>
       <c r="H58" s="26"/>
     </row>
@@ -1878,9 +1927,11 @@
         <v>42947</v>
       </c>
       <c r="C59" s="32"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="33"/>
       <c r="G59" s="28"/>
       <c r="H59" s="26"/>
     </row>
@@ -1893,11 +1944,13 @@
         <v>42954</v>
       </c>
       <c r="C60" s="32"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
       <c r="G60" s="28"/>
-      <c r="H60" s="26"/>
+      <c r="H60" s="26" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C61" s="22"/>
@@ -1910,41 +1963,16 @@
       <c r="C62" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="H62" s="44" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="E39:E46"/>
-    <mergeCell ref="F39:F46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F12:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C17:C23"/>
+  <mergeCells count="53">
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E57:F58"/>
     <mergeCell ref="G5:G10"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="F3:F4"/>
@@ -1961,6 +1989,39 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F12:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="E59:F60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C56" r:id="rId1" location="T118_F11063:8283_x405158_y123863_s15_b4"/>

--- a/Progress Reports/CDC Monthly progress reports/2016/CDC RIF plans - July 2016 to July 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2016/CDC RIF plans - July 2016 to July 2017.xlsx
@@ -458,41 +458,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -839,7 +839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,7 +888,7 @@
         <f>DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A3*7</f>
         <v>42555</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -911,7 +911,7 @@
         <f t="shared" ref="B4:B28" si="0">DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A4*7</f>
         <v>42562</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="35"/>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
@@ -927,7 +927,7 @@
         <f t="shared" si="0"/>
         <v>42569</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
@@ -948,7 +948,7 @@
         <f t="shared" si="0"/>
         <v>42576</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
@@ -970,16 +970,16 @@
         <f t="shared" si="0"/>
         <v>42583</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="33"/>
@@ -993,8 +993,8 @@
         <f t="shared" si="0"/>
         <v>42590</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="17" t="s">
         <v>34</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="35" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -1036,7 +1036,7 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1052,10 +1052,10 @@
         <f t="shared" si="0"/>
         <v>42611</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1078,14 +1078,14 @@
         <f t="shared" si="0"/>
         <v>42618</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="35" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="38" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1101,15 +1101,15 @@
         <f t="shared" si="0"/>
         <v>42625</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="32" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="35" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
         <f t="shared" si="0"/>
         <v>42632</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="32"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1142,13 +1142,13 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="32"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
@@ -1159,15 +1159,15 @@
         <f t="shared" si="0"/>
         <v>42646</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
@@ -1178,15 +1178,15 @@
         <f t="shared" si="0"/>
         <v>42653</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="32"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
@@ -1197,11 +1197,11 @@
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
@@ -1212,11 +1212,11 @@
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
@@ -1227,7 +1227,7 @@
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="16" t="s">
         <v>49</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="34"/>
-      <c r="G20" s="32"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
@@ -1246,15 +1246,15 @@
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="35" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="34"/>
-      <c r="G21" s="32"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
@@ -1265,11 +1265,11 @@
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="34"/>
       <c r="G22" s="19" t="s">
         <v>53</v>
@@ -1284,13 +1284,13 @@
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1306,10 +1306,10 @@
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="35" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -1327,8 +1327,8 @@
         <f t="shared" si="0"/>
         <v>42709</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="33" t="s">
         <v>55</v>
       </c>
@@ -1344,8 +1344,8 @@
         <f t="shared" si="0"/>
         <v>42716</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="39"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="33"/>
       <c r="F26" s="34"/>
       <c r="G26" s="33"/>
@@ -1362,7 +1362,7 @@
       <c r="C27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
       <c r="G27" s="33"/>
@@ -1376,15 +1376,15 @@
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
@@ -1394,17 +1394,17 @@
         <f t="shared" ref="B29:B60" si="2">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A29*7</f>
         <v>42737</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="35" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="32" t="s">
+      <c r="F29" s="42"/>
+      <c r="G29" s="35" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1416,11 +1416,11 @@
         <f t="shared" si="2"/>
         <v>42744</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="32"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
@@ -1430,11 +1430,11 @@
         <f t="shared" si="2"/>
         <v>42751</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="32"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
@@ -1444,11 +1444,11 @@
         <f t="shared" si="2"/>
         <v>42758</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="32"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="35"/>
     </row>
     <row r="33" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
@@ -1458,13 +1458,13 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="32"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="2" t="s">
         <v>61</v>
       </c>
@@ -1477,13 +1477,13 @@
         <f t="shared" si="2"/>
         <v>42772</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="26" t="s">
         <v>63</v>
       </c>
@@ -1497,10 +1497,10 @@
         <f t="shared" si="2"/>
         <v>42779</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="34" t="s">
@@ -1525,8 +1525,8 @@
         <f t="shared" si="2"/>
         <v>42786</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="34"/>
       <c r="F36" s="33"/>
       <c r="G36" s="36"/>
@@ -1542,7 +1542,7 @@
       <c r="C37" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="34"/>
       <c r="F37" s="33" t="s">
         <v>70</v>
@@ -1563,11 +1563,11 @@
       <c r="C38" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="34"/>
       <c r="F38" s="33"/>
       <c r="G38" s="36"/>
-      <c r="H38" s="44" t="s">
+      <c r="H38" s="32" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
         <v>42814</v>
       </c>
       <c r="C40" s="34"/>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E40" s="34"/>
@@ -1616,7 +1616,7 @@
         <v>42821</v>
       </c>
       <c r="C41" s="34"/>
-      <c r="D41" s="32"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
       <c r="G41" s="36"/>
@@ -1629,14 +1629,14 @@
         <f t="shared" si="2"/>
         <v>42828</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="32" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1648,8 +1648,8 @@
         <f t="shared" si="2"/>
         <v>42835</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="24"/>
@@ -1665,8 +1665,8 @@
         <f t="shared" si="2"/>
         <v>42842</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="24"/>
@@ -1680,8 +1680,8 @@
         <f t="shared" si="2"/>
         <v>42849</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
       <c r="G45" s="24"/>
@@ -1700,8 +1700,8 @@
       <c r="C46" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="40" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="43" t="s">
         <v>80</v>
       </c>
       <c r="F46" s="34"/>
@@ -1718,7 +1718,7 @@
         <f t="shared" si="2"/>
         <v>42863</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="35" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="29"/>
@@ -1737,7 +1737,7 @@
         <f t="shared" si="2"/>
         <v>42870</v>
       </c>
-      <c r="C48" s="32"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="29"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
@@ -1752,7 +1752,7 @@
         <f t="shared" si="2"/>
         <v>42877</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="29"/>
@@ -1771,7 +1771,7 @@
         <f t="shared" si="2"/>
         <v>42884</v>
       </c>
-      <c r="C50" s="32"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="29"/>
       <c r="E50" s="33"/>
       <c r="F50" s="8"/>
@@ -1786,7 +1786,7 @@
         <f t="shared" si="2"/>
         <v>42891</v>
       </c>
-      <c r="C51" s="32"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="29"/>
       <c r="E51" s="33"/>
       <c r="F51" s="8"/>
@@ -1877,7 +1877,7 @@
         <f t="shared" si="2"/>
         <v>42926</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="44" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="29"/>
@@ -1894,7 +1894,7 @@
         <f t="shared" si="2"/>
         <v>42933</v>
       </c>
-      <c r="C57" s="32"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="29"/>
       <c r="E57" s="33" t="s">
         <v>85</v>
@@ -1911,7 +1911,7 @@
         <f t="shared" si="2"/>
         <v>42940</v>
       </c>
-      <c r="C58" s="32"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="29"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
@@ -1926,7 +1926,7 @@
         <f t="shared" si="2"/>
         <v>42947</v>
       </c>
-      <c r="C59" s="32"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="29"/>
       <c r="E59" s="33" t="s">
         <v>86</v>
@@ -1943,7 +1943,7 @@
         <f t="shared" si="2"/>
         <v>42954</v>
       </c>
-      <c r="C60" s="32"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="29"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
@@ -1963,17 +1963,41 @@
       <c r="C62" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="44" t="s">
+      <c r="H62" s="32" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F9:F10"/>
@@ -1990,38 +2014,14 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="G5:G10"/>
     <mergeCell ref="F12:F27"/>
     <mergeCell ref="E25:E27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E39:E45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="E59:F60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C56" r:id="rId1" location="T118_F11063:8283_x405158_y123863_s15_b4"/>

--- a/Progress Reports/CDC Monthly progress reports/2016/CDC RIF plans - July 2016 to July 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2016/CDC RIF plans - July 2016 to July 2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>KG</t>
   </si>
@@ -365,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -463,35 +463,38 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,8 +841,8 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,7 +891,7 @@
         <f>DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A3*7</f>
         <v>42555</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -897,7 +900,7 @@
       <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="10"/>
@@ -911,11 +914,11 @@
         <f t="shared" ref="B4:B28" si="0">DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A4*7</f>
         <v>42562</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="34"/>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -927,17 +930,17 @@
         <f t="shared" si="0"/>
         <v>42569</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
@@ -948,15 +951,15 @@
         <f t="shared" si="0"/>
         <v>42576</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
@@ -970,19 +973,19 @@
         <f t="shared" si="0"/>
         <v>42583</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
@@ -993,13 +996,13 @@
         <f t="shared" si="0"/>
         <v>42590</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
@@ -1013,16 +1016,16 @@
       <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
@@ -1036,12 +1039,12 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
@@ -1052,10 +1055,10 @@
         <f t="shared" si="0"/>
         <v>42611</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1078,14 +1081,14 @@
         <f t="shared" si="0"/>
         <v>42618</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="34" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="45" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1101,15 +1104,15 @@
         <f t="shared" si="0"/>
         <v>42625</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="35" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1122,13 +1125,13 @@
         <f t="shared" si="0"/>
         <v>42632</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="35"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1142,13 +1145,13 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
@@ -1159,15 +1162,15 @@
         <f t="shared" si="0"/>
         <v>42646</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
@@ -1178,15 +1181,15 @@
         <f t="shared" si="0"/>
         <v>42653</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
@@ -1197,11 +1200,11 @@
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
@@ -1212,11 +1215,11 @@
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="35"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
@@ -1227,15 +1230,15 @@
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
@@ -1246,15 +1249,15 @@
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
@@ -1265,12 +1268,12 @@
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="19" t="s">
         <v>53</v>
       </c>
@@ -1284,13 +1287,13 @@
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="34" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1306,17 +1309,17 @@
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="33"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
@@ -1327,13 +1330,13 @@
         <f t="shared" si="0"/>
         <v>42709</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="33" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
@@ -1344,11 +1347,11 @@
         <f t="shared" si="0"/>
         <v>42716</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
@@ -1362,10 +1365,10 @@
       <c r="C27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="33"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
@@ -1376,15 +1379,15 @@
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
@@ -1394,17 +1397,17 @@
         <f t="shared" ref="B29:B60" si="2">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A29*7</f>
         <v>42737</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="35" t="s">
+      <c r="F29" s="41"/>
+      <c r="G29" s="34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1416,11 +1419,11 @@
         <f t="shared" si="2"/>
         <v>42744</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="35"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
@@ -1430,11 +1433,11 @@
         <f t="shared" si="2"/>
         <v>42751</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="35"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
@@ -1444,11 +1447,11 @@
         <f t="shared" si="2"/>
         <v>42758</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="35"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
@@ -1458,13 +1461,13 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="C33" s="35"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="35"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="34"/>
       <c r="H33" s="2" t="s">
         <v>61</v>
       </c>
@@ -1497,19 +1500,19 @@
         <f t="shared" si="2"/>
         <v>42779</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="40" t="s">
         <v>59</v>
       </c>
       <c r="H35" s="23" t="s">
@@ -1525,11 +1528,13 @@
         <f t="shared" si="2"/>
         <v>42786</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="36"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
@@ -1542,12 +1547,12 @@
       <c r="C37" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="33" t="s">
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="36"/>
+      <c r="G37" s="40"/>
       <c r="H37" t="s">
         <v>60</v>
       </c>
@@ -1560,13 +1565,13 @@
         <f t="shared" si="2"/>
         <v>42800</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="36"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="32" t="s">
         <v>81</v>
       </c>
@@ -1579,17 +1584,17 @@
         <f t="shared" si="2"/>
         <v>42807</v>
       </c>
-      <c r="C39" s="34"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="36"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
@@ -1599,13 +1604,13 @@
         <f t="shared" si="2"/>
         <v>42814</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="41" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
@@ -1615,11 +1620,11 @@
         <f t="shared" si="2"/>
         <v>42821</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="40"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="14">
@@ -1629,13 +1634,13 @@
         <f t="shared" si="2"/>
         <v>42828</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="36"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="32" t="s">
         <v>82</v>
       </c>
@@ -1648,10 +1653,10 @@
         <f t="shared" si="2"/>
         <v>42835</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="24"/>
       <c r="H43" s="2" t="s">
         <v>68</v>
@@ -1665,10 +1670,10 @@
         <f t="shared" si="2"/>
         <v>42842</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="24"/>
       <c r="H44" s="2"/>
     </row>
@@ -1680,10 +1685,10 @@
         <f t="shared" si="2"/>
         <v>42849</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="24"/>
       <c r="H45" s="26" t="s">
         <v>64</v>
@@ -1700,11 +1705,11 @@
       <c r="C46" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="35"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="34"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="24"/>
       <c r="H46" s="31" t="s">
         <v>80</v>
@@ -1718,14 +1723,14 @@
         <f t="shared" si="2"/>
         <v>42863</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="29"/>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="33"/>
+      <c r="F47" s="35"/>
       <c r="G47" s="28"/>
       <c r="H47" s="26"/>
     </row>
@@ -1737,10 +1742,10 @@
         <f t="shared" si="2"/>
         <v>42870</v>
       </c>
-      <c r="C48" s="35"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="28"/>
       <c r="H48" s="26"/>
     </row>
@@ -1752,11 +1757,11 @@
         <f t="shared" si="2"/>
         <v>42877</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="29"/>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F49" s="8"/>
@@ -1771,9 +1776,9 @@
         <f t="shared" si="2"/>
         <v>42884</v>
       </c>
-      <c r="C50" s="35"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="29"/>
-      <c r="E50" s="33"/>
+      <c r="E50" s="35"/>
       <c r="F50" s="8"/>
       <c r="G50" s="28"/>
       <c r="H50" s="26"/>
@@ -1786,9 +1791,9 @@
         <f t="shared" si="2"/>
         <v>42891</v>
       </c>
-      <c r="C51" s="35"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="33"/>
+      <c r="E51" s="35"/>
       <c r="F51" s="8"/>
       <c r="G51" s="28"/>
       <c r="H51" s="26"/>
@@ -1822,11 +1827,11 @@
         <f t="shared" si="2"/>
         <v>42905</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="35" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="29"/>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="35" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="8"/>
@@ -1841,9 +1846,9 @@
         <f t="shared" si="2"/>
         <v>42912</v>
       </c>
-      <c r="C54" s="34"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="34"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="8"/>
       <c r="G54" s="28"/>
       <c r="H54" s="26"/>
@@ -1861,7 +1866,7 @@
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="35" t="s">
         <v>76</v>
       </c>
       <c r="G55" s="28"/>
@@ -1877,12 +1882,12 @@
         <f t="shared" si="2"/>
         <v>42926</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="37" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="30"/>
-      <c r="F56" s="34"/>
+      <c r="F56" s="36"/>
       <c r="G56" s="28"/>
       <c r="H56" s="26"/>
     </row>
@@ -1894,12 +1899,12 @@
         <f t="shared" si="2"/>
         <v>42933</v>
       </c>
-      <c r="C57" s="35"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="29"/>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F57" s="33"/>
+      <c r="F57" s="35"/>
       <c r="G57" s="28"/>
       <c r="H57" s="26"/>
     </row>
@@ -1911,10 +1916,10 @@
         <f t="shared" si="2"/>
         <v>42940</v>
       </c>
-      <c r="C58" s="35"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="29"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
       <c r="G58" s="28"/>
       <c r="H58" s="26"/>
     </row>
@@ -1926,12 +1931,12 @@
         <f t="shared" si="2"/>
         <v>42947</v>
       </c>
-      <c r="C59" s="35"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="29"/>
-      <c r="E59" s="33" t="s">
+      <c r="E59" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="33"/>
+      <c r="F59" s="35"/>
       <c r="G59" s="28"/>
       <c r="H59" s="26"/>
     </row>
@@ -1943,10 +1948,10 @@
         <f t="shared" si="2"/>
         <v>42954</v>
       </c>
-      <c r="C60" s="35"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="29"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
       <c r="G60" s="28"/>
       <c r="H60" s="26" t="s">
         <v>87</v>
@@ -1969,35 +1974,15 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="F12:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="E36:E38"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F9:F10"/>
@@ -2014,14 +1999,34 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="F12:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="E59:F60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C56" r:id="rId1" location="T118_F11063:8283_x405158_y123863_s15_b4"/>
